--- a/RMI/RMI/media/Reporte/RMI__María_Fenita_correguido.xlsx
+++ b/RMI/RMI/media/Reporte/RMI__María_Fenita_correguido.xlsx
@@ -2026,6 +2026,50 @@
     <xf numFmtId="0" fontId="38" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,67 +2082,280 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2169,6 +2426,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2181,18 +2443,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,308 +2459,50 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2932,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2958,35 +2958,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="175" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="270" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="271"/>
+      <c r="Y2" s="271"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="1"/>
@@ -3002,39 +3002,39 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="298"/>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="302" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="215" t="s">
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="205" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205" t="s">
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="205"/>
+      <c r="Y3" s="207"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="2"/>
@@ -3050,37 +3050,37 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="298"/>
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="212" t="s">
+      <c r="A4" s="159"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="206" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="218" t="s">
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="209"/>
+      <c r="V4" s="209"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="219"/>
+      <c r="Y4" s="215"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="2"/>
@@ -3096,37 +3096,37 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="298"/>
-      <c r="B5" s="301" t="s">
+      <c r="A5" s="159"/>
+      <c r="B5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="215" t="s">
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="209" t="s">
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="211"/>
-      <c r="X5" s="220"/>
-      <c r="Y5" s="221"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="212"/>
+      <c r="W5" s="213"/>
+      <c r="X5" s="216"/>
+      <c r="Y5" s="217"/>
       <c r="Z5" s="110"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="2"/>
@@ -3142,35 +3142,35 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="298"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="280">
+      <c r="A6" s="159"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="134">
         <v>34537529</v>
       </c>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="213"/>
-      <c r="O6" s="214"/>
-      <c r="P6" s="212" t="s">
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="213"/>
-      <c r="R6" s="213"/>
-      <c r="S6" s="213"/>
-      <c r="T6" s="213"/>
-      <c r="U6" s="213"/>
-      <c r="V6" s="213"/>
-      <c r="W6" s="214"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="223"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="219"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="2"/>
@@ -3186,31 +3186,31 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="298"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="282"/>
-      <c r="P7" s="282"/>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="282"/>
-      <c r="S7" s="282"/>
-      <c r="T7" s="282"/>
-      <c r="U7" s="282"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="282"/>
-      <c r="X7" s="282"/>
-      <c r="Y7" s="283"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="137"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -3241,15 +3241,15 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="292"/>
-      <c r="Q8" s="293"/>
-      <c r="R8" s="293"/>
-      <c r="S8" s="293"/>
-      <c r="T8" s="293"/>
-      <c r="U8" s="293"/>
-      <c r="V8" s="293"/>
-      <c r="W8" s="293"/>
-      <c r="X8" s="293"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -3266,33 +3266,33 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
-      <c r="N9" s="295"/>
-      <c r="O9" s="295"/>
-      <c r="P9" s="295"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="295"/>
-      <c r="S9" s="295"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="295"/>
-      <c r="V9" s="295"/>
-      <c r="W9" s="295"/>
-      <c r="X9" s="295"/>
-      <c r="Y9" s="296"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="157"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -3308,57 +3308,57 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="203" t="s">
+      <c r="D10" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="139"/>
+      <c r="I10" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="148" t="s">
+      <c r="P10" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="149" t="s">
+      <c r="Q10" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="149" t="s">
+      <c r="R10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="127" t="s">
+      <c r="S10" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="188" t="s">
+      <c r="T10" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="189"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="285"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -3374,14 +3374,14 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="196"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
+      <c r="A11" s="241"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
       <c r="I11" s="39" t="s">
         <v>13</v>
       </c>
@@ -3403,16 +3403,16 @@
       <c r="O11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="291"/>
-      <c r="R11" s="290"/>
-      <c r="S11" s="193"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="192"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="287"/>
+      <c r="V11" s="287"/>
+      <c r="W11" s="287"/>
+      <c r="X11" s="287"/>
+      <c r="Y11" s="288"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3480,47 +3480,47 @@
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="200">
+      <c r="A13" s="243">
         <v>1355782</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="182">
+      <c r="D13" s="161">
         <v>15</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="284">
+      <c r="G13" s="142">
         <v>33</v>
       </c>
-      <c r="H13" s="285"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="271"/>
-      <c r="L13" s="227" t="s">
+      <c r="H13" s="143"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="245" t="s">
+      <c r="M13" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="268"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="245" t="s">
+      <c r="N13" s="194"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="256">
-        <v>9</v>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="179">
+        <v>12</v>
       </c>
-      <c r="S13" s="256"/>
+      <c r="S13" s="179"/>
       <c r="T13" s="49"/>
       <c r="U13" s="50"/>
       <c r="V13" s="56">
@@ -3548,25 +3548,25 @@
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="269"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="254"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="259"/>
+      <c r="A14" s="244"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="182"/>
       <c r="T14" s="45"/>
       <c r="U14" s="46"/>
       <c r="V14" s="111"/>
@@ -3588,25 +3588,25 @@
       <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="269"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="246"/>
-      <c r="Q15" s="254"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="259"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="182"/>
       <c r="T15" s="45"/>
       <c r="U15" s="111"/>
       <c r="V15" s="111"/>
@@ -3628,25 +3628,25 @@
       <c r="AL15" s="4"/>
     </row>
     <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="201"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="229"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="269"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="247"/>
-      <c r="Q16" s="254"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="259"/>
+      <c r="A16" s="244"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="180"/>
+      <c r="S16" s="182"/>
       <c r="T16" s="113"/>
       <c r="U16" s="111"/>
       <c r="V16" s="111"/>
@@ -3668,29 +3668,29 @@
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="273"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="247"/>
-      <c r="N17" s="270"/>
-      <c r="O17" s="199"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="193"/>
       <c r="P17" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="255"/>
-      <c r="R17" s="258"/>
-      <c r="S17" s="260"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="183"/>
       <c r="T17" s="114"/>
       <c r="U17" s="112"/>
       <c r="V17" s="35"/>
@@ -3730,10 +3730,10 @@
       <c r="F18" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="225">
+      <c r="G18" s="220">
         <v>33</v>
       </c>
-      <c r="H18" s="226"/>
+      <c r="H18" s="221"/>
       <c r="I18" s="81" t="s">
         <v>60</v>
       </c>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="Q18" s="88"/>
       <c r="R18" s="89">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S18" s="115"/>
       <c r="T18" s="117">
@@ -3786,53 +3786,53 @@
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="274">
+      <c r="A19" s="200">
         <v>1355782</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="299" t="s">
+      <c r="C19" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="182">
+      <c r="D19" s="161">
         <v>42</v>
       </c>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="185" t="s">
+      <c r="F19" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="284">
+      <c r="G19" s="142">
         <v>33</v>
       </c>
-      <c r="H19" s="285"/>
-      <c r="I19" s="224" t="s">
+      <c r="H19" s="143"/>
+      <c r="I19" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="224" t="s">
+      <c r="J19" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="224" t="s">
+      <c r="K19" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="224" t="s">
+      <c r="L19" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="224" t="s">
+      <c r="M19" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="263" t="s">
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="256">
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179">
         <v>72</v>
       </c>
-      <c r="S19" s="265"/>
+      <c r="S19" s="188"/>
       <c r="T19" s="116">
         <v>13</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="X19" s="64">
         <v>17</v>
       </c>
-      <c r="Y19" s="242"/>
+      <c r="Y19" s="237"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -3864,25 +3864,25 @@
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="275"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="259"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="182"/>
       <c r="T20" s="61">
         <v>20</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="X20" s="62">
         <v>24</v>
       </c>
-      <c r="Y20" s="243"/>
+      <c r="Y20" s="238"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -3914,35 +3914,35 @@
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="275"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="259"/>
-      <c r="T21" s="230">
+      <c r="A21" s="201"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="225">
         <v>27</v>
       </c>
-      <c r="U21" s="233">
+      <c r="U21" s="228">
         <v>28</v>
       </c>
-      <c r="V21" s="236"/>
-      <c r="W21" s="239"/>
-      <c r="X21" s="239"/>
-      <c r="Y21" s="243"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="234"/>
+      <c r="Y21" s="238"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -3960,31 +3960,31 @@
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="275"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="259"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="234"/>
-      <c r="V22" s="237"/>
-      <c r="W22" s="240"/>
-      <c r="X22" s="240"/>
-      <c r="Y22" s="243"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="182"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="229"/>
+      <c r="V22" s="232"/>
+      <c r="W22" s="235"/>
+      <c r="X22" s="235"/>
+      <c r="Y22" s="238"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -4000,31 +4000,31 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="275"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="259"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="237"/>
-      <c r="W23" s="240"/>
-      <c r="X23" s="240"/>
-      <c r="Y23" s="243"/>
+      <c r="A23" s="201"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="226"/>
+      <c r="U23" s="229"/>
+      <c r="V23" s="232"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="235"/>
+      <c r="Y23" s="238"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -4040,31 +4040,31 @@
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="275"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="235"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="244"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="227"/>
+      <c r="U24" s="230"/>
+      <c r="V24" s="233"/>
+      <c r="W24" s="236"/>
+      <c r="X24" s="236"/>
+      <c r="Y24" s="239"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -4098,10 +4098,10 @@
       <c r="F25" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="276">
+      <c r="G25" s="205">
         <v>30</v>
       </c>
-      <c r="H25" s="277"/>
+      <c r="H25" s="206"/>
       <c r="I25" s="95" t="s">
         <v>70</v>
       </c>
@@ -4126,11 +4126,11 @@
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
       <c r="X25" s="66"/>
-      <c r="Y25" s="303"/>
-      <c r="Z25" s="308"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="125"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="307"/>
+      <c r="AC25" s="124"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -4160,10 +4160,10 @@
       <c r="F26" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="278">
+      <c r="G26" s="126">
         <v>25</v>
       </c>
-      <c r="H26" s="279"/>
+      <c r="H26" s="127"/>
       <c r="I26" s="84" t="s">
         <v>88</v>
       </c>
@@ -4207,10 +4207,10 @@
       <c r="Y26" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="Z26" s="304"/>
-      <c r="AA26" s="305"/>
-      <c r="AB26" s="305"/>
-      <c r="AC26" s="306"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="123"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -4230,25 +4230,25 @@
       <c r="F27" s="5"/>
       <c r="G27" s="53"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="251"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="252"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
       <c r="Q27" s="30"/>
       <c r="R27" s="63">
         <f>SUM(R13:R26)</f>
         <v>147</v>
       </c>
-      <c r="S27" s="248"/>
-      <c r="T27" s="249"/>
-      <c r="U27" s="249"/>
-      <c r="V27" s="249"/>
-      <c r="W27" s="249"/>
-      <c r="X27" s="249"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
       <c r="Y27" s="29"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -4265,32 +4265,32 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="261" t="s">
+      <c r="A28" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="262"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="262"/>
-      <c r="I28" s="262"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="262"/>
-      <c r="L28" s="262"/>
-      <c r="M28" s="262"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="262"/>
-      <c r="Q28" s="262"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="262"/>
-      <c r="T28" s="262"/>
-      <c r="U28" s="262"/>
-      <c r="V28" s="262"/>
-      <c r="W28" s="262"/>
-      <c r="X28" s="262"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+      <c r="U28" s="185"/>
+      <c r="V28" s="185"/>
+      <c r="W28" s="185"/>
+      <c r="X28" s="185"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -4307,51 +4307,51 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="120" t="s">
+      <c r="B29" s="267"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="121"/>
-      <c r="G29" s="127" t="s">
+      <c r="F29" s="139"/>
+      <c r="G29" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="124" t="s">
+      <c r="H29" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="120" t="s">
+      <c r="I29" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
       <c r="O29" s="19"/>
-      <c r="P29" s="148" t="s">
+      <c r="P29" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="Q29" s="149" t="s">
+      <c r="Q29" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="149" t="s">
+      <c r="R29" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="127" t="s">
+      <c r="S29" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="T29" s="120" t="s">
+      <c r="T29" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="126"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="160"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -4367,14 +4367,14 @@
       <c r="AL29" s="1"/>
     </row>
     <row r="30" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="125"/>
+      <c r="A30" s="268"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="292"/>
+      <c r="H30" s="291"/>
       <c r="I30" s="38" t="s">
         <v>13</v>
       </c>
@@ -4396,10 +4396,10 @@
       <c r="O30" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="128"/>
+      <c r="P30" s="292"/>
+      <c r="Q30" s="306"/>
+      <c r="R30" s="307"/>
+      <c r="S30" s="292"/>
       <c r="T30" s="38" t="s">
         <v>13</v>
       </c>
@@ -4433,43 +4433,43 @@
       <c r="AL30" s="1"/>
     </row>
     <row r="31" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="164" t="s">
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="254"/>
+      <c r="E31" s="259" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="165"/>
-      <c r="G31" s="152" t="s">
+      <c r="F31" s="260"/>
+      <c r="G31" s="308" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="146">
+      <c r="H31" s="282">
         <v>1335579</v>
       </c>
-      <c r="I31" s="140"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="135" t="s">
+      <c r="I31" s="299"/>
+      <c r="J31" s="282"/>
+      <c r="K31" s="282"/>
+      <c r="L31" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="M31" s="135" t="s">
+      <c r="M31" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="147" t="s">
+      <c r="N31" s="282"/>
+      <c r="O31" s="282"/>
+      <c r="P31" s="305" t="s">
         <v>43</v>
       </c>
-      <c r="Q31" s="129">
+      <c r="Q31" s="293">
         <v>42775</v>
       </c>
-      <c r="R31" s="129">
+      <c r="R31" s="293">
         <v>42775</v>
       </c>
-      <c r="S31" s="132">
+      <c r="S31" s="272">
         <v>8</v>
       </c>
       <c r="T31" s="49"/>
@@ -4493,25 +4493,25 @@
       <c r="AL31" s="43"/>
     </row>
     <row r="32" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="160"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="133"/>
+      <c r="A32" s="255"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="300"/>
+      <c r="J32" s="279"/>
+      <c r="K32" s="279"/>
+      <c r="L32" s="279"/>
+      <c r="M32" s="279"/>
+      <c r="N32" s="279"/>
+      <c r="O32" s="279"/>
+      <c r="P32" s="279"/>
+      <c r="Q32" s="297"/>
+      <c r="R32" s="294"/>
+      <c r="S32" s="273"/>
       <c r="T32" s="65"/>
       <c r="U32" s="57"/>
       <c r="V32" s="57"/>
@@ -4537,25 +4537,25 @@
       <c r="AL32" s="43"/>
     </row>
     <row r="33" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="160"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="133"/>
+      <c r="A33" s="255"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="279"/>
+      <c r="K33" s="279"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="279"/>
+      <c r="O33" s="279"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="297"/>
+      <c r="R33" s="294"/>
+      <c r="S33" s="273"/>
       <c r="T33" s="65"/>
       <c r="U33" s="57"/>
       <c r="V33" s="57"/>
@@ -4577,25 +4577,25 @@
       <c r="AL33" s="43"/>
     </row>
     <row r="34" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="160"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="133"/>
+      <c r="A34" s="255"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="303"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="300"/>
+      <c r="J34" s="279"/>
+      <c r="K34" s="279"/>
+      <c r="L34" s="279"/>
+      <c r="M34" s="279"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="297"/>
+      <c r="R34" s="294"/>
+      <c r="S34" s="273"/>
       <c r="T34" s="31"/>
       <c r="U34" s="32"/>
       <c r="V34" s="32"/>
@@ -4617,25 +4617,25 @@
       <c r="AL34" s="43"/>
     </row>
     <row r="35" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="137"/>
-      <c r="P35" s="137"/>
-      <c r="Q35" s="139"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="134"/>
+      <c r="A35" s="255"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="304"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="301"/>
+      <c r="J35" s="280"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="280"/>
+      <c r="M35" s="280"/>
+      <c r="N35" s="280"/>
+      <c r="O35" s="280"/>
+      <c r="P35" s="280"/>
+      <c r="Q35" s="298"/>
+      <c r="R35" s="295"/>
+      <c r="S35" s="274"/>
       <c r="T35" s="33"/>
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
@@ -4657,25 +4657,25 @@
       <c r="AL35" s="43"/>
     </row>
     <row r="36" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="168"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="177"/>
-      <c r="S36" s="132"/>
+      <c r="A36" s="263"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="263"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="282"/>
+      <c r="K36" s="282"/>
+      <c r="L36" s="282"/>
+      <c r="M36" s="282"/>
+      <c r="N36" s="282"/>
+      <c r="O36" s="282"/>
+      <c r="P36" s="278"/>
+      <c r="Q36" s="281"/>
+      <c r="R36" s="275"/>
+      <c r="S36" s="272"/>
       <c r="T36" s="49"/>
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
@@ -4697,25 +4697,25 @@
       <c r="AL36" s="43"/>
     </row>
     <row r="37" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="169"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="133"/>
+      <c r="A37" s="264"/>
+      <c r="B37" s="265"/>
+      <c r="C37" s="265"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="264"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="303"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="300"/>
+      <c r="J37" s="279"/>
+      <c r="K37" s="279"/>
+      <c r="L37" s="279"/>
+      <c r="M37" s="279"/>
+      <c r="N37" s="279"/>
+      <c r="O37" s="279"/>
+      <c r="P37" s="279"/>
+      <c r="Q37" s="279"/>
+      <c r="R37" s="276"/>
+      <c r="S37" s="273"/>
       <c r="T37" s="45"/>
       <c r="U37" s="46"/>
       <c r="V37" s="46"/>
@@ -4737,25 +4737,25 @@
       <c r="AL37" s="43"/>
     </row>
     <row r="38" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="169"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="178"/>
-      <c r="S38" s="133"/>
+      <c r="A38" s="264"/>
+      <c r="B38" s="265"/>
+      <c r="C38" s="265"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="303"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="300"/>
+      <c r="J38" s="279"/>
+      <c r="K38" s="279"/>
+      <c r="L38" s="279"/>
+      <c r="M38" s="279"/>
+      <c r="N38" s="279"/>
+      <c r="O38" s="279"/>
+      <c r="P38" s="279"/>
+      <c r="Q38" s="279"/>
+      <c r="R38" s="276"/>
+      <c r="S38" s="273"/>
       <c r="T38" s="45"/>
       <c r="U38" s="46"/>
       <c r="V38" s="46"/>
@@ -4777,25 +4777,25 @@
       <c r="AL38" s="43"/>
     </row>
     <row r="39" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="133"/>
+      <c r="A39" s="264"/>
+      <c r="B39" s="265"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="264"/>
+      <c r="E39" s="264"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="303"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="300"/>
+      <c r="J39" s="279"/>
+      <c r="K39" s="279"/>
+      <c r="L39" s="279"/>
+      <c r="M39" s="279"/>
+      <c r="N39" s="279"/>
+      <c r="O39" s="279"/>
+      <c r="P39" s="279"/>
+      <c r="Q39" s="279"/>
+      <c r="R39" s="276"/>
+      <c r="S39" s="273"/>
       <c r="T39" s="31"/>
       <c r="U39" s="32"/>
       <c r="V39" s="32"/>
@@ -4817,25 +4817,25 @@
       <c r="AL39" s="43"/>
     </row>
     <row r="40" spans="1:38" s="41" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="179"/>
-      <c r="S40" s="134"/>
+      <c r="A40" s="264"/>
+      <c r="B40" s="264"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="264"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="304"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="301"/>
+      <c r="J40" s="280"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="280"/>
+      <c r="N40" s="280"/>
+      <c r="O40" s="280"/>
+      <c r="P40" s="280"/>
+      <c r="Q40" s="280"/>
+      <c r="R40" s="277"/>
+      <c r="S40" s="274"/>
       <c r="T40" s="33"/>
       <c r="U40" s="34"/>
       <c r="V40" s="35"/>
@@ -4857,25 +4857,25 @@
       <c r="AL40" s="43"/>
     </row>
     <row r="41" spans="1:38" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="154" t="s">
+      <c r="A41" s="248"/>
+      <c r="B41" s="248"/>
+      <c r="C41" s="248"/>
+      <c r="D41" s="248"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="248"/>
+      <c r="I41" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="P41" s="155"/>
-      <c r="Q41" s="156"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="250"/>
+      <c r="M41" s="250"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="250"/>
+      <c r="P41" s="250"/>
+      <c r="Q41" s="251"/>
       <c r="S41" s="54">
         <f>R27+S31+S36</f>
         <v>155</v>
@@ -27914,6 +27914,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="R31:R35"/>
+    <mergeCell ref="S31:S35"/>
+    <mergeCell ref="M31:M35"/>
+    <mergeCell ref="Q31:Q35"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="P31:P35"/>
+    <mergeCell ref="O31:O35"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="N31:N35"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:Q41"/>
+    <mergeCell ref="A31:D35"/>
+    <mergeCell ref="E31:F35"/>
+    <mergeCell ref="A36:D40"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="D2:Y2"/>
+    <mergeCell ref="S36:S40"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="P36:P40"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="T10:Y11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E36:F40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="P4:W4"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="X4:Y6"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="Y19:Y24"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="A28:X28"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="S19:S24"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="G5:O5"/>
@@ -27938,103 +28035,6 @@
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="D3:F7"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="A28:X28"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="Q19:Q24"/>
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="X4:Y6"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="Y19:Y24"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:Q41"/>
-    <mergeCell ref="A31:D35"/>
-    <mergeCell ref="E31:F35"/>
-    <mergeCell ref="A36:D40"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="D2:Y2"/>
-    <mergeCell ref="S36:S40"/>
-    <mergeCell ref="R36:R40"/>
-    <mergeCell ref="P36:P40"/>
-    <mergeCell ref="Q36:Q40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="T10:Y11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E36:F40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="R31:R35"/>
-    <mergeCell ref="S31:S35"/>
-    <mergeCell ref="M31:M35"/>
-    <mergeCell ref="Q31:Q35"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="P31:P35"/>
-    <mergeCell ref="O31:O35"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="N31:N35"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P31:P40">
